--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7D8735-6994-6045-A869-95CF2C77E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC5CBCC-BA76-4B46-96B7-8D23DCB23A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15540" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
@@ -1125,6 +1125,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Coûts total des scénarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4081,7 +4106,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC5CBCC-BA76-4B46-96B7-8D23DCB23A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFC619-D51A-D74C-A112-858B02ED8F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15540" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Mix</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Diesel</t>
   </si>
   <si>
-    <t>Batterie</t>
-  </si>
-  <si>
     <t>Cout total</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>Scénario 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cout de production </t>
   </si>
   <si>
     <t>Couts O&amp;M</t>
@@ -82,6 +76,24 @@
   </si>
   <si>
     <t>Emission CO2</t>
+  </si>
+  <si>
+    <t>Stockage</t>
+  </si>
+  <si>
+    <t>Solaire au sol</t>
+  </si>
+  <si>
+    <t>Solaire toiture</t>
+  </si>
+  <si>
+    <t>Éolien terrestre</t>
+  </si>
+  <si>
+    <t>Éolien off-shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coûts de production </t>
   </si>
 </sst>
 </file>
@@ -150,37 +162,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -349,7 +331,7 @@
                   <c:v>Diesel</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Batterie</c:v>
+                  <c:v>Stockage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -461,6 +443,584 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scénario 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7A3A-4D4F-B182-CBC96E4D647A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7A3A-4D4F-B182-CBC96E4D647A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7A3A-4D4F-B182-CBC96E4D647A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7A3A-4D4F-B182-CBC96E4D647A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scénario 2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Solaire</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Éolien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scénario 2'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7A3A-4D4F-B182-CBC96E4D647A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scénario 3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scénario 3'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Solaire au sol</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Solaire toiture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Éolien terrestre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Éolien off-shore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scénario 3'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-862E-434F-A7BA-DA4DFAB8AE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -556,7 +1116,7 @@
                   <c:v>Cout total</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cout de production </c:v>
+                  <c:v>Coûts de production </c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Couts O&amp;M</c:v>
@@ -703,7 +1263,7 @@
                   <c:v>Cout total</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cout de production </c:v>
+                  <c:v>Coûts de production </c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Couts O&amp;M</c:v>
@@ -850,7 +1410,7 @@
                   <c:v>Cout total</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cout de production </c:v>
+                  <c:v>Coûts de production </c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Couts O&amp;M</c:v>
@@ -1110,7 +1670,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1195,7 +1755,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cout de production </c:v>
+                  <c:v>Coûts de production </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2071,6 +2631,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2591,7 +3231,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2648,7 +3288,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2699,6 +3339,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2709,12 +3356,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2752,6 +3406,1030 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -3093,7 +4771,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3640,6 +5318,92 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F9513B-84B6-7F4B-893F-9A37F2E23BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462083F9-DDAE-F24B-9815-1ADD8A7B4B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4016,7 +5780,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4055,7 +5819,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4069,35 +5833,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77597AD9-EC7F-FF48-BA90-7CF4C6B25B90}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4431C8-F134-464C-A3F8-9E20FDEC1D4F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4106,7 +5964,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4118,30 +5976,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -4167,7 +6025,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -4193,7 +6051,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>89</v>

--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,36 +8,69 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFC619-D51A-D74C-A112-858B02ED8F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA7BC9-22CF-C141-8746-2EAE1492B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15540" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scénario 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Scénario 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Scénario 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Comparaison" sheetId="4" r:id="rId4"/>
+    <sheet name="Référence" sheetId="6" r:id="rId1"/>
+    <sheet name="Scénario 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Scénario 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Scénario 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Comparaison" sheetId="4" r:id="rId5"/>
+    <sheet name="CO2" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Comparaison!$A$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Comparaison!$B$1:$H$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Comparaison!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Comparaison!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Comparaison!$B$4:$H$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Scénario 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Mix</t>
   </si>
@@ -95,12 +128,164 @@
   <si>
     <t xml:space="preserve">Coûts de production </t>
   </si>
+  <si>
+    <t>Prix du carbone (€/tCO2eq)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mix (MW)</t>
+  </si>
+  <si>
+    <t>Coûts (M€)</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>O&amp;M</t>
+  </si>
+  <si>
+    <t>Carburant</t>
+  </si>
+  <si>
+    <t>Unserved energy</t>
+  </si>
+  <si>
+    <t>LCOE</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Emmision C02</t>
+  </si>
+  <si>
+    <t>%diesel mix</t>
+  </si>
+  <si>
+    <t>total C_I</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>total C_O&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€/an </t>
+  </si>
+  <si>
+    <t>Total C_Fuel</t>
+  </si>
+  <si>
+    <t>Total C_LOLE</t>
+  </si>
+  <si>
+    <t>total present costs</t>
+  </si>
+  <si>
+    <t>€_2021</t>
+  </si>
+  <si>
+    <t>CO2_Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tCO2/an </t>
+  </si>
+  <si>
+    <t>System LCOE</t>
+  </si>
+  <si>
+    <t>€_2021/MWh</t>
+  </si>
+  <si>
+    <t>hab</t>
+  </si>
+  <si>
+    <t>foyer</t>
+  </si>
+  <si>
+    <t>Surface quiberon</t>
+  </si>
+  <si>
+    <t>km2</t>
+  </si>
+  <si>
+    <t>Surface libre</t>
+  </si>
+  <si>
+    <t>Surf NRJ</t>
+  </si>
+  <si>
+    <t>km2 habités</t>
+  </si>
+  <si>
+    <t>Parc éolien de rosoco (USA)</t>
+  </si>
+  <si>
+    <t>Puissance</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>nb d'éolienne</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>1 éolienne</t>
+  </si>
+  <si>
+    <t>1 panneau solaire</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>MWc</t>
+  </si>
+  <si>
+    <t>MW/km2</t>
+  </si>
+  <si>
+    <t>MWc/km2</t>
+  </si>
+  <si>
+    <t>bhadla solar parc</t>
+  </si>
+  <si>
+    <t>Pmax PV toiture</t>
+  </si>
+  <si>
+    <t>Pmax éolien</t>
+  </si>
+  <si>
+    <t>Pmax PV sol</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>km2/MW</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,16 +293,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -125,14 +336,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,16 +712,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>24.206133600000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>41.463414729999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>20.429814950000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0.25236392000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,16 +990,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>28.08317237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>52.007729410000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>19.699400910000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2.3391302899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,6 +1120,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -766,6 +1140,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -781,6 +1160,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -796,6 +1180,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -811,6 +1200,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -826,6 +1220,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2511,6 +2910,760 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%diesel mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23658837654378731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21302406626114795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19288661784558947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11580202088888943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3697294790467169E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC4C-3746-965A-0D336BA34C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1903774239"/>
+        <c:axId val="1916734271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1903774239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916734271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1916734271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903774239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.429814950000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.06925953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.699400910000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.383838480000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B705-894A-957D-704DA7062B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25236392000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3962591799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3391302899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.40692666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.517413510000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B705-894A-957D-704DA7062B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1914460047"/>
+        <c:axId val="1913704047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1914460047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913704047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1913704047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914460047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2711,6 +3864,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -5257,6 +6490,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5480,6 +7745,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9071D4C-D280-40F4-6022-A5820887853A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E718B9C5-8A7F-2273-563C-537E13B49812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -5776,11 +8118,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0509E4-C7BA-8F49-8540-18917771B809}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="18">
+        <v>8404040.4000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2424000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18">
+        <v>23067760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="18">
+        <v>326031370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="18">
+        <v>100277.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="19">
+        <v>200.66136175639346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36730EAB-00C9-934C-9592-81CCDAADDD38}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>24.206133600000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41.463414729999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20.429814950000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.25236392000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>86.351727199999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77597AD9-EC7F-FF48-BA90-7CF4C6B25B90}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5797,160 +8303,38 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>17</v>
+      <c r="B2" s="5">
+        <v>28.08317237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>43</v>
+      <c r="B3" s="5">
+        <v>52.007729410000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>21</v>
+      <c r="B4" s="5">
+        <v>19.699400910000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77597AD9-EC7F-FF48-BA90-7CF4C6B25B90}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4431C8-F134-464C-A3F8-9E20FDEC1D4F}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="5">
+        <v>2.3391302899999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
       <c r="B6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
+        <f>SUM(B2:B5)</f>
+        <v>102.12943298</v>
       </c>
     </row>
   </sheetData>
@@ -5960,10 +8344,304 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4431C8-F134-464C-A3F8-9E20FDEC1D4F}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <v>8.83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>4990</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>L4/2.17</f>
+        <v>2299.5391705069123</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <f>L5*200/1000000</f>
+        <v>0.45990783410138247</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7">
+        <f>L2-L6</f>
+        <v>8.3700921658986172</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <f>0.6*L7</f>
+        <v>5.0220552995391703</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17">
+        <f>L8/(F24+B29/2.5)</f>
+        <v>9.6525889120736235</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18">
+        <f>L17/2.5</f>
+        <v>3.8610355648294492</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19">
+        <f>B28*0.00006*L5</f>
+        <v>6.5355323793354358</v>
+      </c>
+      <c r="M19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>781.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21">
+        <f>B21/B22</f>
+        <v>1.2464114832535884</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>627</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <f>B23/B22</f>
+        <v>0.63795853269537484</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23">
+        <f>F21/F22</f>
+        <v>1.9537499999999997</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24">
+        <f>1/F23</f>
+        <v>0.51183621241202826</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>2700</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <f>B26/B27</f>
+        <v>47.368421052631582</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <f>1/B28</f>
+        <v>2.1111111111111108E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD29E265-2862-A846-BF15-7D41C4F1FC4B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -6079,4 +8757,391 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2D859-56D2-BD41-A063-0755B23184F8}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>500</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>24.206133600000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>26.213689030000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>28.08317237</v>
+      </c>
+      <c r="F3" s="5">
+        <v>37.518037630000002</v>
+      </c>
+      <c r="G3" s="5">
+        <v>47.647665840000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>41.463414729999997</v>
+      </c>
+      <c r="D4" s="5">
+        <v>46.532023330000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>52.007729410000003</v>
+      </c>
+      <c r="F4" s="5">
+        <v>80.808080739999994</v>
+      </c>
+      <c r="G4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20.429814950000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20.06925953</v>
+      </c>
+      <c r="E5" s="5">
+        <v>19.699400910000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>17.383838480000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.25236392000000002</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.3962591799999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.3391302899999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>14.40692666</v>
+      </c>
+      <c r="G6" s="9">
+        <v>27.517413510000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15">
+        <f>SUM(C3:C6)</f>
+        <v>86.351727199999999</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
+        <v>94.211231069999997</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>102.12943298</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>150.11688351000001</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>191.16507935000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8">
+        <v>76.932508737294228</v>
+      </c>
+      <c r="D8" s="8">
+        <v>85.977669041354559</v>
+      </c>
+      <c r="E8" s="8">
+        <v>95.204519029541331</v>
+      </c>
+      <c r="F8" s="8">
+        <v>151.34516632370151</v>
+      </c>
+      <c r="G8" s="8">
+        <v>197.7095904561954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.9882153687500002</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.1766267250600002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.3788635643799996</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5.4007893300100003</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6.1401243242399994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7.9663496675142191</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.1407842351739346</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.4213158982058154</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.8632832170967402</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2.7989271163314511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.22786256760339979</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.21420573972409979</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.2148658778237999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.12611252898749989</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4.5637878177599997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>140.7869362016186</v>
+      </c>
+      <c r="D12" s="5">
+        <v>141.36310495337969</v>
+      </c>
+      <c r="E12" s="5">
+        <v>143.08065575218851</v>
+      </c>
+      <c r="F12" s="5">
+        <v>165.1749570474465</v>
+      </c>
+      <c r="G12" s="5">
+        <v>190.6036084429094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
+        <v>34.610863809708668</v>
+      </c>
+      <c r="D13" s="5">
+        <v>31.024085179936471</v>
+      </c>
+      <c r="E13" s="5">
+        <v>27.898259467346168</v>
+      </c>
+      <c r="F13" s="5">
+        <v>16.784546858459851</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12.16031046586941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="12">
+        <v>228.72555668148499</v>
+      </c>
+      <c r="D14" s="12">
+        <v>229.66161312283171</v>
+      </c>
+      <c r="E14" s="12">
+        <v>232.45198397104511</v>
+      </c>
+      <c r="F14" s="12">
+        <v>268.34687237183567</v>
+      </c>
+      <c r="G14" s="12">
+        <v>309.65881936780897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="8">
+        <v>34610.863809708702</v>
+      </c>
+      <c r="D15" s="8">
+        <v>31024.085179936479</v>
+      </c>
+      <c r="E15" s="8">
+        <v>27898.259467346201</v>
+      </c>
+      <c r="F15" s="8">
+        <v>16784.546858459849</v>
+      </c>
+      <c r="G15" s="8">
+        <v>12160.31046586941</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="16">
+        <f>C5/C7</f>
+        <v>0.23658837654378731</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" ref="D19:G19" si="1">D5/D7</f>
+        <v>0.21302406626114795</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="1"/>
+        <v>0.19288661784558947</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="1"/>
+        <v>0.11580202088888943</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="1"/>
+        <v>8.3697294790467169E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>68000000</v>
+      </c>
+      <c r="J24">
+        <v>1777000000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f>I24*J25/J24</f>
+        <v>4989.983117613956</v>
+      </c>
+      <c r="J25">
+        <v>130400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA7BC9-22CF-C141-8746-2EAE1492B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179D371B-9579-1E4C-9FC9-F8165F23F4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
   <sheets>
     <sheet name="Référence" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Mix</t>
   </si>
@@ -275,15 +275,28 @@
   <si>
     <t>CAPEX</t>
   </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>€/tCO2eq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -464,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -483,6 +496,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +513,7 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -661,10 +676,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -709,7 +724,7 @@
             <c:numRef>
               <c:f>'Scénario 1'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24.206133600000001</c:v>
@@ -734,10 +749,10 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -819,11 +834,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Scénario 2'!$B$1</c:f>
+              <c:f>'Scénario 2'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mix</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -842,11 +857,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7A3A-4D4F-B182-CBC96E4D647A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -862,11 +872,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7A3A-4D4F-B182-CBC96E4D647A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -882,11 +887,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7A3A-4D4F-B182-CBC96E4D647A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -902,11 +902,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7A3A-4D4F-B182-CBC96E4D647A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -939,10 +934,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -965,7 +960,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Scénario 2'!$A$2:$A$5</c:f>
+              <c:f>'Scénario 2'!$A$3:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -985,37 +980,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Scénario 2'!$B$2:$B$5</c:f>
+              <c:f>'Scénario 2'!$B$3:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.08317237</c:v>
+                  <c:v>26.213689030000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.007729410000003</c:v>
+                  <c:v>46.532023330000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.699400910000001</c:v>
+                  <c:v>20.06925953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3391302899999999</c:v>
+                  <c:v>1.3962591799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7A3A-4D4F-B182-CBC96E4D647A}"/>
+              <c16:uniqueId val="{00000000-BE18-4A43-9FD5-E095C5093494}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1074,6 +1069,264 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scénario 2'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scénario 2'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Solaire</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Éolien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scénario 2'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.08317237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.007729410000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.699400910000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3391302899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F61-8248-B0F8-E1F80A6369DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1403,7 +1656,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2069,7 +2322,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2910,7 +3163,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3240,7 +3493,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3578,6 +3831,616 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1914460047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solaire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.206133600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.213689030000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.08317237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.518037630000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.647665840000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44BA-9041-822A-49AB9C9D9E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Éolien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.463414729999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.532023330000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.007729410000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.808080739999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-44BA-9041-822A-49AB9C9D9E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.429814950000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.06925953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.699400910000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.383838480000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-44BA-9041-822A-49AB9C9D9E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CO2'!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25236392000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3962591799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3391302899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.40692666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.517413510000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-44BA-9041-822A-49AB9C9D9E0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1884909743"/>
+        <c:axId val="1901471407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1884909743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901471407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1901471407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884909743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3944,6 +4807,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -5502,7 +6445,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5559,7 +6502,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5610,6 +6553,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5620,12 +6570,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5663,7 +6620,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5706,22 +6663,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5826,8 +6784,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5959,19 +6917,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6005,7 +6964,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6209,23 +7168,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6330,8 +7288,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6463,20 +7421,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6510,7 +7467,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6537,8 +7494,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6639,7 +7596,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6671,10 +7628,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6995,17 +7952,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7541,20 +8487,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7586,29 +9564,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F9513B-84B6-7F4B-893F-9A37F2E23BD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C628B44-01A2-C01C-ACEF-E5D92235B355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7617,6 +9593,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56D06F4-39ED-45E7-8810-9D0D31DC1C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7819,6 +9831,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B4AF4C-D9E7-08D9-4B3E-9FD78D92A198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8121,8 +10169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0509E4-C7BA-8F49-8540-18917771B809}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8138,7 +10186,7 @@
       <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="19">
         <v>8404040.4000000004</v>
       </c>
     </row>
@@ -8149,7 +10197,7 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="19">
         <v>2424000</v>
       </c>
     </row>
@@ -8160,7 +10208,7 @@
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="19">
         <v>23067760</v>
       </c>
     </row>
@@ -8171,7 +10219,7 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -8182,7 +10230,7 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>326031370</v>
       </c>
     </row>
@@ -8193,7 +10241,7 @@
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>100277.6</v>
       </c>
     </row>
@@ -8204,15 +10252,31 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="20">
         <v>200.66136175639346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8221,10 +10285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36730EAB-00C9-934C-9592-81CCDAADDD38}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8232,44 +10296,56 @@
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="23">
         <v>24.206133600000001</v>
       </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="23">
         <v>41.463414729999997</v>
       </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="23">
         <v>20.429814950000001</v>
       </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="23">
         <v>0.25236392000000002</v>
       </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>86.351727199999999</v>
@@ -8283,10 +10359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77597AD9-EC7F-FF48-BA90-7CF4C6B25B90}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8294,50 +10370,106 @@
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="5">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="23">
+        <v>26.213689030000001</v>
+      </c>
+      <c r="C3" s="23">
         <v>28.08317237</v>
       </c>
+      <c r="D3" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="23">
+        <v>46.532023330000001</v>
+      </c>
+      <c r="C4" s="23">
         <v>52.007729410000003</v>
       </c>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="23">
+        <v>20.06925953</v>
+      </c>
+      <c r="C5" s="23">
         <v>19.699400910000001</v>
       </c>
+      <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="23">
+        <v>1.3962591799999999</v>
+      </c>
+      <c r="C6" s="23">
         <v>2.3391302899999999</v>
       </c>
+      <c r="D6" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23">
+        <f t="shared" ref="B7:C7" si="0">SUM(B3:B6)</f>
+        <v>94.211231069999997</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" si="0"/>
         <v>102.12943298</v>
       </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8347,13 +10479,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4431C8-F134-464C-A3F8-9E20FDEC1D4F}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8642,7 +10774,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8764,7 +10896,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B2" sqref="B2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8901,29 +11033,29 @@
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <f>SUM(C3:C6)</f>
         <v>86.351727199999999</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
         <v>94.211231069999997</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>102.12943298</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>150.11688351000001</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>191.16507935000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -9055,27 +11187,27 @@
       <c r="B14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <v>228.72555668148499</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>229.66161312283171</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>232.45198397104511</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>268.34687237183567</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>309.65881936780897</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="8">
         <v>34610.863809708702</v>
       </c>
@@ -9096,23 +11228,23 @@
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="17">
         <f>C5/C7</f>
         <v>0.23658837654378731</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="17">
         <f t="shared" ref="D19:G19" si="1">D5/D7</f>
         <v>0.21302406626114795</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <f t="shared" si="1"/>
         <v>0.19288661784558947</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="17">
         <f t="shared" si="1"/>
         <v>0.11580202088888943</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="17">
         <f t="shared" si="1"/>
         <v>8.3697294790467169E-2</v>
       </c>

--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179D371B-9579-1E4C-9FC9-F8165F23F4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A8A5C-B4BA-194A-B9EB-5CE9543C8B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
   <sheets>
     <sheet name="Référence" sheetId="6" r:id="rId1"/>
     <sheet name="Scénario 1" sheetId="1" r:id="rId2"/>
     <sheet name="Scénario 2" sheetId="2" r:id="rId3"/>
     <sheet name="Scénario 3" sheetId="3" r:id="rId4"/>
-    <sheet name="Comparaison" sheetId="4" r:id="rId5"/>
-    <sheet name="CO2" sheetId="5" r:id="rId6"/>
+    <sheet name="CO2" sheetId="5" r:id="rId5"/>
+    <sheet name="Comparaison" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Mix</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Diesel</t>
-  </si>
-  <si>
-    <t>Cout total</t>
   </si>
   <si>
     <t>Scénario 1</t>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>€/tCO2eq</t>
+  </si>
+  <si>
+    <t>Capex</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Scénario 1'!$B$1</c:f>
+              <c:f>Référence!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -565,12 +565,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -581,67 +590,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-06EB-3E45-809E-F78A4A4EF428}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-06EB-3E45-809E-F78A4A4EF428}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-06EB-3E45-809E-F78A4A4EF428}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-06EB-3E45-809E-F78A4A4EF428}"/>
+                <c16:uniqueId val="{00000001-E327-494D-82FF-55B8B77D73CE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -677,7 +626,7 @@
             </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
@@ -702,48 +651,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Scénario 1'!$A$2:$A$5</c:f>
+              <c:f>Référence!$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Solaire</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Éolien</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Stockage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Scénario 1'!$B$2:$B$5</c:f>
+              <c:f>Référence!$B$17</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24.206133600000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.463414729999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.429814950000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25236392000000002</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A204-A641-BB2B-0FB8AB23F78E}"/>
+              <c16:uniqueId val="{00000000-9E2E-734E-B85B-B4EE0691F25D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -810,1519 +741,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scénario 2'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scénario 2'!$A$3:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Solaire</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Éolien</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Stockage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scénario 2'!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>26.213689030000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.532023330000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.06925953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3962591799999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE18-4A43-9FD5-E095C5093494}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scénario 2'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scénario 2'!$A$3:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Solaire</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Éolien</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Stockage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scénario 2'!$C$3:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>28.08317237</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.007729410000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.699400910000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3391302899999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F61-8248-B0F8-E1F80A6369DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scénario 3'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-39C2-714B-9325-B31AF4C4C6C1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-39C2-714B-9325-B31AF4C4C6C1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-39C2-714B-9325-B31AF4C4C6C1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-39C2-714B-9325-B31AF4C4C6C1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-39C2-714B-9325-B31AF4C4C6C1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-39C2-714B-9325-B31AF4C4C6C1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scénario 3'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Solaire au sol</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Solaire toiture</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Éolien terrestre</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Éolien off-shore</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Stockage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scénario 3'!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-862E-434F-A7BA-DA4DFAB8AE99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Cout total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Coûts de production </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Couts O&amp;M</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cout diesel</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cout Energie unserved</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cout CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Emission CO2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DB7-5943-A359-0653B259A83C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Cout total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Coûts de production </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Couts O&amp;M</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cout diesel</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cout Energie unserved</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cout CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Emission CO2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$B$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DB7-5943-A359-0653B259A83C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Cout total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Coûts de production </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Couts O&amp;M</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cout diesel</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cout Energie unserved</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cout CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Emission CO2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5DB7-5943-A359-0653B259A83C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1842150911"/>
-        <c:axId val="1820204255"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1842150911"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1820204255"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1820204255"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1842150911"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3163,7 +1582,1183 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scénario 1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-06EB-3E45-809E-F78A4A4EF428}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-06EB-3E45-809E-F78A4A4EF428}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-06EB-3E45-809E-F78A4A4EF428}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-06EB-3E45-809E-F78A4A4EF428}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scénario 1'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Solaire</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Éolien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scénario 1'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.206133600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.463414729999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.429814950000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25236392000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A204-A641-BB2B-0FB8AB23F78E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scénario 2'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BE18-4A43-9FD5-E095C5093494}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BE18-4A43-9FD5-E095C5093494}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-BE18-4A43-9FD5-E095C5093494}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BE18-4A43-9FD5-E095C5093494}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scénario 2'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Solaire</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Éolien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scénario 2'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.213689030000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.532023330000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.06925953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3962591799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE18-4A43-9FD5-E095C5093494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scénario 2'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-379A-4C41-8BD4-7BE3EA5AE1D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-379A-4C41-8BD4-7BE3EA5AE1D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-379A-4C41-8BD4-7BE3EA5AE1D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-379A-4C41-8BD4-7BE3EA5AE1D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scénario 2'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Solaire</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Éolien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scénario 2'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.08317237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.007729410000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.699400910000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3391302899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-379A-4C41-8BD4-7BE3EA5AE1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scénario 3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-39C2-714B-9325-B31AF4C4C6C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scénario 3'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Solaire au sol</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Solaire toiture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Éolien terrestre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Éolien off-shore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scénario 3'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-862E-434F-A7BA-DA4DFAB8AE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3493,7 +3088,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3917,7 +3512,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4527,7 +4122,713 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparaison!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scénario 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparaison!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Capex</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coûts de production </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Couts O&amp;M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cout diesel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cout Energie unserved</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cout CO2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emission CO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparaison!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DB7-5943-A359-0653B259A83C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparaison!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scénario 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparaison!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Capex</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coûts de production </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Couts O&amp;M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cout diesel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cout Energie unserved</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cout CO2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emission CO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparaison!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DB7-5943-A359-0653B259A83C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparaison!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scénario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparaison!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Capex</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coûts de production </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Couts O&amp;M</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cout diesel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cout Energie unserved</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cout CO2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emission CO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparaison!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DB7-5943-A359-0653B259A83C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1842150911"/>
+        <c:axId val="1820204255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1842150911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1820204255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1820204255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842150911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5406,8 +5707,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5464,7 +5765,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5515,13 +5816,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5532,19 +5826,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5582,7 +5869,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5925,7 +6212,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6444,7 +6731,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6963,8 +7250,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7021,7 +7308,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7072,6 +7359,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7082,12 +7376,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7125,7 +7426,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7168,22 +7469,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7288,8 +7590,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7421,19 +7723,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7466,8 +7769,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7524,7 +7827,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7575,6 +7878,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7585,12 +7895,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7628,7 +7945,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7971,7 +8288,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8487,7 +8804,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9003,7 +9320,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9519,7 +9836,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E871BC-4218-10E3-06A3-95281953862D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9529,8 +10390,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
@@ -9560,7 +10421,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9600,27 +10461,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56D06F4-39ED-45E7-8810-9D0D31DC1C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB0442B-66A0-3847-B0DC-84B67386578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9637,20 +10500,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9672,83 +10535,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B03A957-4DB4-2076-6D8F-984DE84ED839}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5405E5B6-61FC-EC4B-CB1D-668B908B4914}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9862,6 +10648,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B03A957-4DB4-2076-6D8F-984DE84ED839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5405E5B6-61FC-EC4B-CB1D-668B908B4914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10167,10 +11030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0509E4-C7BA-8F49-8540-18917771B809}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10181,10 +11044,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
       </c>
       <c r="C1" s="19">
         <v>8404040.4000000004</v>
@@ -10192,10 +11055,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="19">
         <v>2424000</v>
@@ -10203,10 +11066,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="19">
         <v>23067760</v>
@@ -10214,10 +11077,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="19">
         <v>0</v>
@@ -10225,10 +11088,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
       </c>
       <c r="C5" s="19">
         <v>326031370</v>
@@ -10236,10 +11099,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
       </c>
       <c r="C6" s="19">
         <v>100277.6</v>
@@ -10247,10 +11110,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
       </c>
       <c r="C7" s="20">
         <v>200.66136175639346</v>
@@ -10258,18 +11121,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -10278,8 +11141,22 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10287,8 +11164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36730EAB-00C9-934C-9592-81CCDAADDD38}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="174" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10309,7 +11186,7 @@
         <v>24.206133600000001</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -10320,7 +11197,7 @@
         <v>41.463414729999997</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -10331,18 +11208,18 @@
         <v>20.429814950000001</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="23">
         <v>0.25236392000000002</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -10362,7 +11239,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10387,7 +11264,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -10401,7 +11278,7 @@
         <v>28.08317237</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10415,7 +11292,7 @@
         <v>52.007729410000003</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -10429,12 +11306,12 @@
         <v>19.699400910000001</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="23">
         <v>1.3962591799999999</v>
@@ -10443,12 +11320,12 @@
         <v>2.3391302899999999</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="23">
         <f t="shared" ref="B7:C7" si="0">SUM(B3:B6)</f>
@@ -10477,10 +11354,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4431C8-F134-464C-A3F8-9E20FDEC1D4F}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10490,277 +11367,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
       <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2">
-        <v>8.83</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3">
+        <v>8.83</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>4990</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L5">
-        <f>L4/2.17</f>
-        <v>2299.5391705069123</v>
+        <v>4990</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f>L5*200/1000000</f>
-        <v>0.45990783410138247</v>
+        <f>L5/2.17</f>
+        <v>2299.5391705069123</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L7">
-        <f>L2-L6</f>
-        <v>8.3700921658986172</v>
+        <f>L6*200/1000000</f>
+        <v>0.45990783410138247</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8">
-        <f>0.6*L7</f>
+        <f>L3-L7</f>
+        <v>8.3700921658986172</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9">
+        <f>0.6*L8</f>
         <v>5.0220552995391703</v>
       </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17">
-        <f>L8/(F24+B29/2.5)</f>
-        <v>9.6525889120736235</v>
-      </c>
-      <c r="M17" t="s">
-        <v>52</v>
+      <c r="M9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L18">
-        <f>L17/2.5</f>
-        <v>3.8610355648294492</v>
+        <f>L9/(F25+B30/2.5)</f>
+        <v>9.6525889120736235</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L19">
-        <f>B28*0.00006*L5</f>
-        <v>6.5355323793354358</v>
+        <f>L18/2.5</f>
+        <v>3.8610355648294492</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20">
+        <f>B29*0.00006*L6</f>
+        <v>6.5355323793354358</v>
+      </c>
+      <c r="M20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21">
-        <v>781.5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21">
-        <f>B21/B22</f>
-        <v>1.2464114832535884</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>627</v>
+        <v>781.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <f>B23/B22</f>
-        <v>0.63795853269537484</v>
+        <f>B22/B23</f>
+        <v>1.2464114832535884</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23">
-        <v>400</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
+        <v>627</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F23">
-        <f>F21/F22</f>
-        <v>1.9537499999999997</v>
+        <f>B24/B23</f>
+        <v>0.63795853269537484</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F24">
-        <f>1/F23</f>
-        <v>0.51183621241202826</v>
+        <f>F22/F23</f>
+        <v>1.9537499999999997</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25">
+        <f>1/F24</f>
+        <v>0.51183621241202826</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26">
-        <v>2700</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B27">
+        <v>2700</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
         <v>57</v>
       </c>
-      <c r="B28">
-        <f>B26/B27</f>
-        <v>47.368421052631582</v>
-      </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <f>B27/B28</f>
+        <v>47.368421052631582</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <f>1/B29</f>
+        <v>2.1111111111111108E-2</v>
+      </c>
+      <c r="C30" t="s">
         <v>65</v>
-      </c>
-      <c r="B29">
-        <f>1/B28</f>
-        <v>2.1111111111111108E-2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -10770,133 +11657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD29E265-2862-A846-BF15-7D41C4F1FC4B}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>99</v>
-      </c>
-      <c r="C2">
-        <v>99</v>
-      </c>
-      <c r="D2">
-        <v>99</v>
-      </c>
-      <c r="E2">
-        <v>99</v>
-      </c>
-      <c r="F2">
-        <v>99</v>
-      </c>
-      <c r="G2">
-        <v>99</v>
-      </c>
-      <c r="H2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <v>78</v>
-      </c>
-      <c r="E3">
-        <v>78</v>
-      </c>
-      <c r="F3">
-        <v>78</v>
-      </c>
-      <c r="G3">
-        <v>78</v>
-      </c>
-      <c r="H3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>89</v>
-      </c>
-      <c r="C4">
-        <v>89</v>
-      </c>
-      <c r="D4">
-        <v>89</v>
-      </c>
-      <c r="E4">
-        <v>89</v>
-      </c>
-      <c r="F4">
-        <v>89</v>
-      </c>
-      <c r="G4">
-        <v>89</v>
-      </c>
-      <c r="H4">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2D859-56D2-BD41-A063-0755B23184F8}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10908,7 +11673,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -10944,7 +11709,7 @@
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -11010,7 +11775,7 @@
     <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
         <v>0.25236392000000002</v>
@@ -11031,7 +11796,7 @@
     <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16">
         <f>SUM(C3:C6)</f>
@@ -11056,10 +11821,10 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="8">
         <v>76.932508737294228</v>
@@ -11080,7 +11845,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5">
         <v>3.9882153687500002</v>
@@ -11101,7 +11866,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5">
         <v>7.9663496675142191</v>
@@ -11122,7 +11887,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
         <v>0.22786256760339979</v>
@@ -11143,7 +11908,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5">
         <v>140.7869362016186</v>
@@ -11164,7 +11929,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
         <v>34.610863809708668</v>
@@ -11185,7 +11950,7 @@
     <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="13">
         <v>228.72555668148499</v>
@@ -11205,7 +11970,7 @@
     </row>
     <row r="15" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="8">
@@ -11226,7 +11991,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="17">
         <f>C5/C7</f>
@@ -11276,4 +12041,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD29E265-2862-A846-BF15-7D41C4F1FC4B}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>99</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>78</v>
+      </c>
+      <c r="H3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>89</v>
+      </c>
+      <c r="G4">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A8A5C-B4BA-194A-B9EB-5CE9543C8B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62B945-00B8-A248-ACFF-E18D5C4C27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
   <sheets>
     <sheet name="Référence" sheetId="6" r:id="rId1"/>
@@ -21,33 +21,83 @@
     <sheet name="Comparaison" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Scénario 1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Scénario 1'!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Scénario 1'!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Comparaison!$B$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Comparaison!$B$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Comparaison!$B$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Comparaison!$B$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Comparaison!$C$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Comparaison!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Comparaison!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Comparaison!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v2.21" hidden="1">Comparaison!$A$3</definedName>
+    <definedName name="_xlchart.v2.22" hidden="1">Comparaison!$A$4</definedName>
+    <definedName name="_xlchart.v2.23" hidden="1">Comparaison!$A$5</definedName>
+    <definedName name="_xlchart.v2.24" hidden="1">Comparaison!$B$1:$G$2</definedName>
+    <definedName name="_xlchart.v2.25" hidden="1">Comparaison!$B$3:$G$3</definedName>
+    <definedName name="_xlchart.v2.26" hidden="1">Comparaison!$B$4:$G$4</definedName>
+    <definedName name="_xlchart.v2.27" hidden="1">Comparaison!$B$5:$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>Mix</t>
   </si>
@@ -100,12 +150,6 @@
   </si>
   <si>
     <t>Cout Energie unserved</t>
-  </si>
-  <si>
-    <t>Cout CO2</t>
-  </si>
-  <si>
-    <t>Emission CO2</t>
   </si>
   <si>
     <t>Stockage</t>
@@ -154,9 +198,6 @@
   </si>
   <si>
     <t>CO2</t>
-  </si>
-  <si>
-    <t>Emmision C02</t>
   </si>
   <si>
     <t>%diesel mix</t>
@@ -287,6 +328,30 @@
   <si>
     <t>Capex</t>
   </si>
+  <si>
+    <t>M€</t>
+  </si>
+  <si>
+    <t>M€/an</t>
+  </si>
+  <si>
+    <t>Coûts CO2</t>
+  </si>
+  <si>
+    <t>Emmission CO2</t>
+  </si>
+  <si>
+    <t>tCO2/an</t>
+  </si>
+  <si>
+    <t>€/MWh</t>
+  </si>
+  <si>
+    <t>tCO2eq/an</t>
+  </si>
+  <si>
+    <t>Emissions CO2</t>
+  </si>
 </sst>
 </file>
 
@@ -341,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -374,33 +439,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -421,24 +460,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -456,6 +484,96 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -463,11 +581,76 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -477,43 +660,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -706,847 +914,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Coûts total des scénarios</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coûts de production </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B548-754B-956C-35A4EF280F74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Couts O&amp;M</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B548-754B-956C-35A4EF280F74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cout diesel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B548-754B-956C-35A4EF280F74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cout Energie unserved</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B548-754B-956C-35A4EF280F74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cout CO2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$G$2:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B548-754B-956C-35A4EF280F74}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="95"/>
-        <c:overlap val="100"/>
-        <c:axId val="1867223535"/>
-        <c:axId val="1867225263"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1867223535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1867225263"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1867225263"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1867223535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2466,7 +1833,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2506,7 +1873,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2546,7 +1915,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2566,7 +1937,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2613,7 +1984,7 @@
             </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
@@ -2669,22 +2040,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>22.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,11 +2484,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CO2'!$B$5</c:f>
+              <c:f>'CO2'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Diesel</c:v>
+                  <c:v>Solaire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3172,24 +2543,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CO2'!$C$5:$G$5</c:f>
+              <c:f>'CO2'!$C$3:$G$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.429814950000001</c:v>
+                  <c:v>24.206133600000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.06925953</c:v>
+                  <c:v>26.213689030000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.699400910000001</c:v>
+                  <c:v>28.08317237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.383838480000001</c:v>
+                  <c:v>37.518037630000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>47.647665840000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,7 +2568,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B705-894A-957D-704DA7062B73}"/>
+              <c16:uniqueId val="{00000000-44BA-9041-822A-49AB9C9D9E0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3206,11 +2577,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CO2'!$B$6</c:f>
+              <c:f>'CO2'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stockage</c:v>
+                  <c:v>Éolien</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3265,433 +2636,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CO2'!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.25236392000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3962591799999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3391302899999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.40692666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.517413510000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B705-894A-957D-704DA7062B73}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1914460047"/>
-        <c:axId val="1913704047"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1914460047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1913704047"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1913704047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1914460047"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'CO2'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solaire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'CO2'!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'CO2'!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>24.206133600000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.213689030000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.08317237</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.518037630000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.647665840000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44BA-9041-822A-49AB9C9D9E0A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'CO2'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Éolien</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'CO2'!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>'CO2'!$C$4:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>41.463414729999997</c:v>
@@ -3784,7 +2731,7 @@
             <c:numRef>
               <c:f>'CO2'!$C$5:$G$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20.429814950000001</c:v>
@@ -3877,7 +2824,7 @@
             <c:numRef>
               <c:f>'CO2'!$C$6:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.25236392000000002</c:v>
@@ -3998,7 +2945,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4122,6 +3069,565 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solaire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CO2'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.206133600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.213689030000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.08317237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.518037630000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.647665840000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD92-7244-8C63-5101CB179D80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Éolien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CO2'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.463414729999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.532023330000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.007729410000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.808080739999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD92-7244-8C63-5101CB179D80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diesel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CO2'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.429814950000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.06925953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.699400910000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.383838480000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD92-7244-8C63-5101CB179D80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CO2'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stockage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CO2'!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CO2'!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25236392000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3962591799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3391302899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.40692666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.517413510000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AD92-7244-8C63-5101CB179D80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1482208127"/>
+        <c:axId val="1903797615"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1482208127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903797615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1903797615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1482208127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4141,18 +3647,31 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$A$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Comparaison!$D$1:$D$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Comparaison!$D$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Comparaison!$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
+                  <c:v>Couts O&amp;M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M€/an</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4197,7 +3716,6 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4227,66 +3745,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$B$1:$H$1</c:f>
+              <c:f>Comparaison!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Capex</c:v>
+                  <c:v>Scénario 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Coûts de production </c:v>
+                  <c:v>Scénario 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Couts O&amp;M</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cout diesel</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cout Energie unserved</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cout CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Emission CO2</c:v>
+                  <c:v>Scénario 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$B$2:$H$2</c:f>
+              <c:f>Comparaison!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DB7-5943-A359-0653B259A83C}"/>
+              <c16:uniqueId val="{00000000-554C-114C-B7AC-7404B91BC750}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4295,11 +3789,24 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$A$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Comparaison!$E$1:$E$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Comparaison!$E$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Comparaison!$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scénario 2</c:v>
+                  <c:v>Cout diesel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M€/an</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4344,7 +3851,6 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4374,66 +3880,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$B$1:$H$1</c:f>
+              <c:f>Comparaison!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Capex</c:v>
+                  <c:v>Scénario 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Coûts de production </c:v>
+                  <c:v>Scénario 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Couts O&amp;M</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cout diesel</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cout Energie unserved</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cout CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Emission CO2</c:v>
+                  <c:v>Scénario 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$B$3:$H$3</c:f>
+              <c:f>Comparaison!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DB7-5943-A359-0653B259A83C}"/>
+              <c16:uniqueId val="{00000001-554C-114C-B7AC-7404B91BC750}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4442,11 +3924,24 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$A$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Comparaison!$F$1:$F$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Comparaison!$F$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Comparaison!$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scénario 3</c:v>
+                  <c:v>Cout Energie unserved</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M€/an</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4491,7 +3986,6 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4521,71 +4015,181 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$B$1:$H$1</c:f>
+              <c:f>Comparaison!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Capex</c:v>
+                  <c:v>Scénario 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Coûts de production </c:v>
+                  <c:v>Scénario 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Couts O&amp;M</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cout diesel</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cout Energie unserved</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cout CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Emission CO2</c:v>
+                  <c:v>Scénario 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$B$4:$H$4</c:f>
+              <c:f>Comparaison!$F$3:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5DB7-5943-A359-0653B259A83C}"/>
+              <c16:uniqueId val="{00000002-554C-114C-B7AC-7404B91BC750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Comparaison!$G$1:$G$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Comparaison!$G$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Comparaison!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Coûts CO2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M€/an</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparaison!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scénario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scénario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scénario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparaison!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-554C-114C-B7AC-7404B91BC750}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -4593,13 +4197,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1842150911"/>
-        <c:axId val="1820204255"/>
+        <c:gapWidth val="95"/>
+        <c:overlap val="100"/>
+        <c:axId val="1484068495"/>
+        <c:axId val="1916035631"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1842150911"/>
+        <c:axId val="1484068495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,7 +4246,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820204255"/>
+        <c:crossAx val="1916035631"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4650,58 +4254,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1820204255"/>
+        <c:axId val="1916035631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1842150911"/>
+        <c:crossAx val="1484068495"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4714,7 +4277,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4746,13 +4309,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4789,46 +4345,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5707,8 +5223,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5765,7 +5281,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5816,6 +5332,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5826,12 +5349,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5869,7 +5399,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6212,7 +5742,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6731,7 +6261,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7250,7 +6780,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7769,8 +7299,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7797,8 +7327,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7827,7 +7357,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7878,13 +7408,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7895,25 +7418,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7948,7 +7464,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8269,6 +7785,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8288,7 +7815,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8804,8 +8331,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8832,8 +8359,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8934,7 +8461,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8966,10 +8493,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9075,9 +8602,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -9195,6 +8727,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9290,17 +8833,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9320,8 +8852,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9348,8 +8880,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9450,7 +8982,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9482,10 +9014,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9793,520 +9325,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10583,42 +9601,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E718B9C5-8A7F-2273-563C-537E13B49812}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -10647,6 +9629,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C4C8B3-CDA5-A794-7184-0E641CDFAFFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -10661,22 +9679,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B03A957-4DB4-2076-6D8F-984DE84ED839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0566E1-59D2-78E8-9C3A-9626CA2D98A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10689,42 +9707,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5405E5B6-61FC-EC4B-CB1D-668B908B4914}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11032,7 +10014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0509E4-C7BA-8F49-8540-18917771B809}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -11044,102 +10026,102 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="19">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6">
         <v>8404040.4000000004</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="19">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6">
         <v>2424000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="19">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6">
         <v>23067760</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="19">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="19">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6">
         <v>326031370</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="19">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6">
         <v>100277.6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="20">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7">
         <v>200.66136175639346</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="21"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="22"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -11174,52 +10156,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="10">
         <v>24.206133600000001</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="10">
         <v>41.463414729999997</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="10">
         <v>20.429814950000001</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10">
         <v>0.25236392000000002</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11248,100 +10230,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
+      <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="12"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3">
         <v>45</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>70</v>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="10">
         <v>26.213689030000001</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="10">
         <v>28.08317237</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>51</v>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="10">
         <v>46.532023330000001</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="10">
         <v>52.007729410000003</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>51</v>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="10">
         <v>20.06925953</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="10">
         <v>19.699400910000001</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>51</v>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="23">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10">
         <v>1.3962591799999999</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="10">
         <v>2.3391302899999999</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>69</v>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="23">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
         <f t="shared" ref="B7:C7" si="0">SUM(B3:B6)</f>
         <v>94.211231069999997</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>102.12943298</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11356,8 +10338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4431C8-F134-464C-A3F8-9E20FDEC1D4F}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11378,29 +10360,29 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L3">
         <v>8.83</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11408,21 +10390,21 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="L5">
         <v>4990</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11432,7 +10414,7 @@
         <v>2299.5391705069123</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -11440,214 +10422,214 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>22.6</v>
       </c>
       <c r="L7">
         <f>L6*200/1000000</f>
         <v>0.45990783410138247</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L8">
         <f>L3-L7</f>
         <v>8.3700921658986172</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L9">
         <f>0.6*L8</f>
         <v>5.0220552995391703</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L18">
         <f>L9/(F25+B30/2.5)</f>
         <v>9.6525889120736235</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L19">
         <f>L18/2.5</f>
         <v>3.8610355648294492</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L20">
         <f>B29*0.00006*L6</f>
         <v>6.5355323793354358</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>781.5</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <f>B22/B23</f>
         <v>1.2464114832535884</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>627</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <f>B24/B23</f>
         <v>0.63795853269537484</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>400</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <f>F22/F23</f>
         <v>1.9537499999999997</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <f>1/F24</f>
         <v>0.51183621241202826</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>2700</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <f>B27/B28</f>
         <v>47.368421052631582</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <f>1/B29</f>
         <v>2.1111111111111108E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -11658,10 +10640,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2D859-56D2-BD41-A063-0755B23184F8}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11672,33 +10654,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="17">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="18">
         <v>45</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="18">
         <v>100</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="18">
         <v>500</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="19">
         <v>1000</v>
       </c>
       <c r="H2" s="1"/>
@@ -11708,327 +10690,349 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="26">
         <v>24.206133600000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="27">
         <v>26.213689030000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="27">
         <v>28.08317237</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="27">
         <v>37.518037630000002</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="28">
         <v>47.647665840000002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="29">
         <v>41.463414729999997</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="11">
         <v>46.532023330000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="11">
         <v>52.007729410000003</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="11">
         <v>80.808080739999994</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="30">
         <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="29">
         <v>20.429814950000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>20.06925953</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="11">
         <v>19.699400910000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="11">
         <v>17.383838480000001</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="30">
         <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="A6" s="22"/>
+      <c r="B6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="33">
         <v>0.25236392000000002</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="13">
         <v>1.3962591799999999</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="13">
         <v>2.3391302899999999</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>14.40692666</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="34">
         <v>27.517413510000001</v>
       </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16">
+    <row r="7" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="35">
         <f>SUM(C3:C6)</f>
         <v>86.351727199999999</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="36">
         <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
         <v>94.211231069999997</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="36">
         <f t="shared" si="0"/>
         <v>102.12943298</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="36">
         <f t="shared" si="0"/>
         <v>150.11688351000001</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="37">
         <f t="shared" si="0"/>
         <v>191.16507935000001</v>
       </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8">
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="26">
         <v>76.932508737294228</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="27">
         <v>85.977669041354559</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="27">
         <v>95.204519029541331</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="27">
         <v>151.34516632370151</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="28">
         <v>197.7095904561954</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="22"/>
+      <c r="B9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="29">
         <v>3.9882153687500002</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <v>4.1766267250600002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>4.3788635643799996</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="11">
         <v>5.4007893300100003</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="30">
         <v>6.1401243242399994</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="29">
         <v>7.9663496675142191</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="11">
         <v>7.1407842351739346</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="11">
         <v>6.4213158982058154</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="11">
         <v>3.8632832170967402</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="30">
         <v>2.7989271163314511</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="29">
         <v>0.22786256760339979</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="11">
         <v>0.21420573972409979</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="11">
         <v>0.2148658778237999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="11">
         <v>0.12611252898749989</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="30">
         <v>4.5637878177599997E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="29">
         <v>140.7869362016186</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="11">
         <v>141.36310495337969</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="11">
         <v>143.08065575218851</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="11">
         <v>165.1749570474465</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="30">
         <v>190.6036084429094</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="29">
         <v>34.610863809708668</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="11">
         <v>31.024085179936471</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="11">
         <v>27.898259467346168</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="11">
         <v>16.784546858459851</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="30">
         <v>12.16031046586941</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="31">
         <v>228.72555668148499</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>229.66161312283171</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>232.45198397104511</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>268.34687237183567</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="32">
         <v>309.65881936780897</v>
       </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="8">
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="35">
         <v>34610.863809708702</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="36">
         <v>31024.085179936479</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="36">
         <v>27898.259467346201</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="36">
         <v>16784.546858459849</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="37">
         <v>12160.31046586941</v>
       </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="17">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5">
         <f>C5/C7</f>
         <v>0.23658837654378731</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="5">
         <f t="shared" ref="D19:G19" si="1">D5/D7</f>
         <v>0.21302406626114795</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>0.19288661784558947</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>0.11580202088888943</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>8.3697294790467169E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I24">
-        <v>68000000</v>
-      </c>
-      <c r="J24">
-        <v>1777000000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I25">
-        <f>I24*J25/J24</f>
-        <v>4989.983117613956</v>
-      </c>
-      <c r="J25">
-        <v>130400</v>
       </c>
     </row>
   </sheetData>
@@ -12045,10 +11049,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD29E265-2862-A846-BF15-7D41C4F1FC4B}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12058,12 +11062,12 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -12075,88 +11079,114 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>99</v>
-      </c>
-      <c r="C2">
-        <v>99</v>
-      </c>
-      <c r="D2">
-        <v>99</v>
-      </c>
-      <c r="E2">
-        <v>99</v>
-      </c>
-      <c r="F2">
-        <v>99</v>
-      </c>
-      <c r="G2">
-        <v>99</v>
-      </c>
-      <c r="H2">
-        <v>99</v>
+      <c r="B3">
+        <v>228.7</v>
+      </c>
+      <c r="C3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D3">
+        <v>3.9</v>
+      </c>
+      <c r="E3">
+        <v>7.9</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>140.69999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <v>78</v>
-      </c>
-      <c r="E3">
-        <v>78</v>
-      </c>
-      <c r="F3">
-        <v>78</v>
-      </c>
-      <c r="G3">
-        <v>78</v>
-      </c>
-      <c r="H3">
-        <v>78</v>
+      <c r="B4">
+        <v>232.4</v>
+      </c>
+      <c r="C4">
+        <v>95.2</v>
+      </c>
+      <c r="D4">
+        <v>4.3</v>
+      </c>
+      <c r="E4">
+        <v>6.4</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>2.8</v>
+      </c>
+      <c r="H4">
+        <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>89</v>
-      </c>
-      <c r="C4">
-        <v>89</v>
-      </c>
-      <c r="D4">
-        <v>89</v>
-      </c>
-      <c r="E4">
-        <v>89</v>
-      </c>
-      <c r="F4">
-        <v>89</v>
-      </c>
-      <c r="G4">
-        <v>89</v>
-      </c>
-      <c r="H4">
-        <v>89</v>
+      <c r="B5">
+        <v>294</v>
+      </c>
+      <c r="C5">
+        <v>22.3</v>
+      </c>
+      <c r="D5">
+        <v>2.7</v>
+      </c>
+      <c r="E5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.09</v>
+      </c>
+      <c r="G5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H5">
+        <v>180.9</v>
       </c>
     </row>
   </sheetData>

--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62B945-00B8-A248-ACFF-E18D5C4C27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1227E31-865D-D24E-AC26-BC93BB670162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>Mix</t>
   </si>
@@ -406,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -580,6 +580,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -660,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -698,7 +711,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -708,20 +721,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -9402,16 +9417,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452164</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123496</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10144,10 +10159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36730EAB-00C9-934C-9592-81CCDAADDD38}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10210,7 +10225,137 @@
         <v>86.351727199999999</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33">
+        <v>24.206133600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="29">
+        <v>41.463414729999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="29">
+        <v>20.429814950000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.25236392000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="36">
+        <f>SUM(C10:C13)</f>
+        <v>86.351727199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="26">
+        <v>76.932508737294228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="29">
+        <v>3.9882153687500002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="29">
+        <v>7.9663496675142191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0.22786256760339979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="29">
+        <v>140.7869362016186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="29">
+        <v>34.610863809708668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="31">
+        <v>228.72555668148499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="36">
+        <v>34610.863809708702</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10339,7 +10484,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10451,6 +10596,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B3:B8)</f>
+        <v>36</v>
+      </c>
       <c r="K9" t="s">
         <v>44</v>
       </c>
@@ -10643,7 +10795,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10765,10 +10917,10 @@
     </row>
     <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="34">
         <v>0.25236392000000002</v>
       </c>
       <c r="D6" s="13">
@@ -10780,7 +10932,7 @@
       <c r="F6" s="13">
         <v>14.40692666</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="35">
         <v>27.517413510000001</v>
       </c>
       <c r="H6" t="s">
@@ -10788,27 +10940,27 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="36">
         <f>SUM(C3:C6)</f>
         <v>86.351727199999999</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="37">
         <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
         <v>94.211231069999997</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="37">
         <f t="shared" si="0"/>
         <v>102.12943298</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="37">
         <f t="shared" si="0"/>
         <v>150.11688351000001</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="38">
         <f t="shared" si="0"/>
         <v>191.16507935000001</v>
       </c>
@@ -10820,7 +10972,7 @@
       <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="26">
@@ -10963,8 +11115,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="31">
@@ -10987,23 +11139,23 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="35">
+      <c r="C15" s="36">
         <v>34610.863809708702</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="37">
         <v>31024.085179936479</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="37">
         <v>27898.259467346201</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="37">
         <v>16784.546858459849</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="38">
         <v>12160.31046586941</v>
       </c>
       <c r="H15" t="s">
@@ -11052,7 +11204,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1227E31-865D-D24E-AC26-BC93BB670162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12888899-9E3F-184B-A518-BDF2118A5DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>Mix</t>
   </si>
@@ -352,6 +352,9 @@
   <si>
     <t>Emissions CO2</t>
   </si>
+  <si>
+    <t>Run 2040</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +366,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,6 +384,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -737,6 +748,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -10030,7 +10044,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10481,10 +10495,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4431C8-F134-464C-A3F8-9E20FDEC1D4F}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10784,7 +10798,147 @@
         <v>62</v>
       </c>
     </row>
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>78.571428572024075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="45"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="36">
+        <f>SUM(C37:C40)</f>
+        <v>229.57142857202408</v>
+      </c>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>237.62639886233279</v>
+      </c>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>6.50065748080298</v>
+      </c>
+      <c r="F43" s="45"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>0.25192157142815191</v>
+      </c>
+      <c r="F44" s="45"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>30.361928571393129</v>
+      </c>
+      <c r="F45" s="45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>430.91448671407949</v>
+      </c>
+      <c r="F46" s="45"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>0.1094506714283892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>700.07316385269098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49">
+        <v>1094.5067142838921</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:B49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10795,7 +10949,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C15"/>
+      <selection activeCell="A3" sqref="A3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/GitHub/Projet-EA314/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\cours-ensta\EA\Projet-EA314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12888899-9E3F-184B-A518-BDF2118A5DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55756C5-7343-45B5-BFF8-C8BA791C6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="8" xr2:uid="{53F6A174-91B3-0C4E-8675-53590B2F591F}"/>
   </bookViews>
   <sheets>
     <sheet name="Référence" sheetId="6" r:id="rId1"/>
@@ -19,78 +19,11 @@
     <sheet name="Scénario 3" sheetId="3" r:id="rId4"/>
     <sheet name="CO2" sheetId="5" r:id="rId5"/>
     <sheet name="Comparaison" sheetId="4" r:id="rId6"/>
+    <sheet name="Feuil2" sheetId="8" r:id="rId7"/>
+    <sheet name="Feuil3" sheetId="9" r:id="rId8"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Comparaison!$B$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Comparaison!$B$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Comparaison!$B$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Comparaison!$B$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Comparaison!$A$3</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Comparaison!$A$5</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Comparaison!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Comparaison!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Comparaison!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Comparaison!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Comparaison!$A$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Comparaison!$A$5</definedName>
     <definedName name="_xlchart.v2.21" hidden="1">Comparaison!$A$3</definedName>
     <definedName name="_xlchart.v2.22" hidden="1">Comparaison!$A$4</definedName>
     <definedName name="_xlchart.v2.23" hidden="1">Comparaison!$A$5</definedName>
@@ -99,28 +32,17 @@
     <definedName name="_xlchart.v2.26" hidden="1">Comparaison!$B$4:$G$4</definedName>
     <definedName name="_xlchart.v2.27" hidden="1">Comparaison!$B$5:$G$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="85">
   <si>
     <t>Mix</t>
   </si>
@@ -355,18 +277,39 @@
   <si>
     <t>Run 2040</t>
   </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Émissions CO2</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>LOLE</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>²</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,6 +339,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Corbel"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Corbel"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -417,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -679,52 +638,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -738,18 +751,64 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,7 +917,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -967,7 +1026,1543 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Comparaison!$D$1:$D$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Comparaison!$D$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Comparaison!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Couts O&amp;M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M€/an</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparaison!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scénario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scénario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scénario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparaison!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-554C-114C-B7AC-7404B91BC750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Comparaison!$E$1:$E$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Comparaison!$E$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Comparaison!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cout diesel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M€/an</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparaison!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scénario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scénario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scénario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparaison!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-554C-114C-B7AC-7404B91BC750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Comparaison!$F$1:$F$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Comparaison!$F$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Comparaison!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cout Energie unserved</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M€/an</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparaison!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scénario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scénario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scénario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparaison!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-554C-114C-B7AC-7404B91BC750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Comparaison!$G$1:$G$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Comparaison!$G$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Comparaison!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Coûts CO2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M€/an</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparaison!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scénario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scénario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scénario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparaison!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-554C-114C-B7AC-7404B91BC750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="95"/>
+        <c:overlap val="100"/>
+        <c:axId val="1484068495"/>
+        <c:axId val="1916035631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1484068495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916035631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1916035631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1484068495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$L$8:$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O&amp;M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carburant</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Unserved energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$M$8:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.642000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2B2-415E-9519-602DA5234054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Production</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$S$2:$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$S$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                  <c:v>8.4040403999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.204519029541331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67F3-42E7-B010-75949532BDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O&amp;M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$S$2:$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$S$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                  <c:v>30.22728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.560640012174801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.642000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67F3-42E7-B010-75949532BDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carburant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$S$2:$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$S$5:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                  <c:v>287.65496719999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.009596091644468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-67F3-42E7-B010-75949532BDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unserved energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$S$2:$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenario 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$S$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.677228837684547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-67F3-42E7-B010-75949532BDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="693154176"/>
+        <c:axId val="693163536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="693154176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693163536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693163536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="693154176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -979,6 +2574,341 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Répartition des couts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Référence!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CAPEX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O&amp;M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fuel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Référence!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8404040.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30227280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>287654967.19999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0895-479C-A834-837A2EB3BE35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1122,7 +3052,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1249,7 +3179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1260,7 +3190,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1404,7 +3334,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1531,7 +3461,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1542,7 +3472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1686,7 +3616,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1813,7 +3743,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1824,7 +3754,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2008,7 +3938,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2147,7 +4077,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2158,7 +4088,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2198,7 +4128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2367,7 +4297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1916734271"/>
@@ -2429,7 +4359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903774239"/>
@@ -2477,7 +4407,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2488,7 +4418,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2946,7 +4876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1901471407"/>
@@ -3008,7 +4938,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1884909743"/>
@@ -3050,7 +4980,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3087,7 +5017,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3098,7 +5028,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3138,7 +5068,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3508,7 +5438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903797615"/>
@@ -3567,7 +5497,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1482208127"/>
@@ -3609,7 +5539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3646,723 +5576,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Comparaison!$D$1:$D$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Comparaison!$D$1</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Comparaison!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Couts O&amp;M</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M€/an</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-554C-114C-B7AC-7404B91BC750}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Comparaison!$E$1:$E$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Comparaison!$E$1</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Comparaison!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Cout diesel</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M€/an</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-554C-114C-B7AC-7404B91BC750}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Comparaison!$F$1:$F$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Comparaison!$F$1</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Comparaison!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Cout Energie unserved</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M€/an</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$F$3:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-554C-114C-B7AC-7404B91BC750}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Comparaison!$G$1:$G$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Comparaison!$G$1</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Comparaison!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Coûts CO2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M€/an</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparaison!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scénario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scénario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scénario 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$G$3:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-554C-114C-B7AC-7404B91BC750}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="95"/>
-        <c:overlap val="100"/>
-        <c:axId val="1484068495"/>
-        <c:axId val="1916035631"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1484068495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1916035631"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1916035631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1484068495"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4374,6 +5588,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5252,8 +6586,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5310,7 +6644,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5361,13 +6695,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5378,19 +6705,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5428,7 +6748,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5705,6 +7025,1558 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7329,7 +10201,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7356,8 +10228,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7386,7 +10258,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7437,6 +10309,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7447,18 +10326,25 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7493,7 +10379,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7814,17 +10700,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8361,7 +11236,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8388,8 +11263,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8490,7 +11365,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8522,10 +11397,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8631,14 +11506,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -8756,17 +11626,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -8862,6 +11721,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8882,7 +11752,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9152,9 +12022,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -9272,6 +12147,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9419,6 +12305,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD82679-3563-145F-689A-0355F2A93ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9666,16 +12588,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9708,15 +12630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9736,6 +12658,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>151534</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>417079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>736022</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125556</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E4CDFC-F2CF-711F-1EE3-E5AECFC8262D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>539750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4968D0E-1ADF-7091-4333-044BF40B3332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10041,101 +13040,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0509E4-C7BA-8F49-8540-18917771B809}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="J5" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.4140625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.08203125" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <v>8404040.4000000004</v>
       </c>
+      <c r="D1" s="3">
+        <v>8404040.4000000004</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>2424000</v>
       </c>
+      <c r="D2" s="6">
+        <f>C2*12.47</f>
+        <v>30227280</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8404040.4000000004</v>
+      </c>
+      <c r="J2" s="6">
+        <f>I2*10^-6</f>
+        <v>8.4040403999999995</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>23067760</v>
       </c>
+      <c r="D3" s="6">
+        <f>C3*12.47</f>
+        <v>287654967.19999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6">
+        <v>30227280</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J4" si="0">I3*10^-6</f>
+        <v>30.22728</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="6">
+        <v>287654967.19999999</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>287.65496719999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>326031370</v>
       </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f>I5*10^-6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>100277.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>200.66136175639346</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -10146,18 +13200,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="9"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -10175,192 +13229,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36730EAB-00C9-934C-9592-81CCDAADDD38}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>24.206133600000001</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>41.463414729999997</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>20.429814950000001</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>0.25236392000000002</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>86.351727199999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="44"/>
+    <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23">
+        <v>24.206133600000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="33">
-        <v>24.206133600000001</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="19">
+        <v>41.463414729999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="29">
-        <v>41.463414729999997</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="33"/>
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="19">
+        <v>20.429814950000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="29">
-        <v>20.429814950000001</v>
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="33"/>
+      <c r="B13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.25236392000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="34">
-        <v>0.25236392000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="34"/>
+      <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="26">
         <f>SUM(C10:C13)</f>
         <v>86.351727199999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="16">
         <v>76.932508737294228</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="19">
         <v>3.9882153687500002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="24" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="33"/>
+      <c r="B17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="19">
         <v>7.9663496675142191</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="19">
         <v>0.22786256760339979</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="33"/>
+      <c r="B19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="19">
         <v>140.7869362016186</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="19">
         <v>34.610863809708668</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40" t="s">
+    <row r="21" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="34"/>
+      <c r="B21" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="21">
         <v>228.72555668148499</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="36">
+      <c r="B22" s="36"/>
+      <c r="C22" s="26">
         <v>34610.863809708702</v>
       </c>
     </row>
@@ -10377,112 +13429,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77597AD9-EC7F-FF48-BA90-7CF4C6B25B90}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="37"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
         <v>45</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>26.213689030000001</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>28.08317237</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>46.532023330000001</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>52.007729410000003</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>20.06925953</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>19.699400910000001</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>1.3962591799999999</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>2.3391302899999999</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <f t="shared" ref="B7:C7" si="0">SUM(B3:B6)</f>
         <v>94.211231069999997</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>102.12943298</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10497,24 +13539,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4431C8-F134-464C-A3F8-9E20FDEC1D4F}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>100</v>
       </c>
@@ -10522,7 +13562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -10539,7 +13579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -10547,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -10561,7 +13601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -10576,7 +13616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -10591,7 +13631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -10609,7 +13649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -10628,7 +13668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K18" t="s">
         <v>59</v>
       </c>
@@ -10640,7 +13680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K19" t="s">
         <v>60</v>
       </c>
@@ -10652,7 +13692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K20" t="s">
         <v>58</v>
       </c>
@@ -10664,7 +13704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -10672,7 +13712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -10693,7 +13733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -10711,7 +13751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -10732,7 +13772,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>61</v>
       </c>
@@ -10744,7 +13784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -10752,7 +13792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -10763,7 +13803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -10774,7 +13814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -10786,7 +13826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -10798,137 +13838,137 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C37">
         <v>78.571428572024075</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="33"/>
+      <c r="B38" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C38">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
+      <c r="B39" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="31"/>
     </row>
-    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="43" t="s">
+    <row r="40" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="33"/>
+      <c r="B40" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="31"/>
     </row>
-    <row r="41" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40" t="s">
+    <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="34"/>
+      <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="26">
         <f>SUM(C37:C40)</f>
         <v>229.57142857202408</v>
       </c>
-      <c r="F41" s="45"/>
+      <c r="F41" s="31"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C42">
         <v>237.62639886233279</v>
       </c>
-      <c r="F42" s="45"/>
+      <c r="F42" s="31"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="24" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="33"/>
+      <c r="B43" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C43">
         <v>6.50065748080298</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="31"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="24" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="33"/>
+      <c r="B44" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C44">
         <v>0.25192157142815191</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="31"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="24" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="33"/>
+      <c r="B45" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C45">
         <v>30.361928571393129</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="31"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="33"/>
+      <c r="B46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C46">
         <v>430.91448671407949</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="31"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="24" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="33"/>
+      <c r="B47" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C47">
         <v>0.1094506714283892</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="40" t="s">
+    <row r="48" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="34"/>
+      <c r="B48" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C48">
         <v>700.07316385269098</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="36"/>
       <c r="C49">
         <v>1094.5067142838921</v>
       </c>
@@ -10946,397 +13986,465 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2D859-56D2-BD41-A063-0755B23184F8}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C15"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="17">
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="12">
         <v>45</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="12">
         <v>100</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="12">
         <v>500</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="13">
         <v>1000</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="16">
         <v>24.206133600000001</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="17">
         <v>26.213689030000001</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="17">
         <v>28.08317237</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="17">
         <v>37.518037630000002</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="18">
         <v>47.647665840000002</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="33"/>
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="19">
         <v>41.463414729999997</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>46.532023330000001</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>52.007729410000003</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>80.808080739999994</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="20">
         <v>100</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="19">
         <v>20.429814950000001</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>20.06925953</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>19.699400910000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>17.383838480000001</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="20">
         <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
+      <c r="P5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>76.932508737294228</v>
+      </c>
+      <c r="R5" s="16">
+        <v>76.932508737294228</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="33"/>
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="24">
         <v>0.25236392000000002</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>1.3962591799999999</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>2.3391302899999999</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>14.40692666</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="25">
         <v>27.517413510000001</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
       </c>
+      <c r="P6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>3.9882153687500002</v>
+      </c>
+      <c r="R6">
+        <f>Q6*12.46</f>
+        <v>49.693163494625004</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="34"/>
+      <c r="B7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="26">
         <f>SUM(C3:C6)</f>
         <v>86.351727199999999</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="27">
         <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
         <v>94.211231069999997</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>102.12943298</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="27">
         <f t="shared" si="0"/>
         <v>150.11688351000001</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="28">
         <f t="shared" si="0"/>
         <v>191.16507935000001</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
       </c>
+      <c r="P7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>7.9663496675142191</v>
+      </c>
+      <c r="R7">
+        <f>Q7*12.46</f>
+        <v>99.26071685722718</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="16">
         <v>76.932508737294228</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="17">
         <v>85.977669041354559</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="17">
         <v>95.204519029541331</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="17">
         <v>151.34516632370151</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="18">
         <v>197.7095904561954</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>95.204519029541331</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>95.204519029541331</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0.22786256760339979</v>
+      </c>
+      <c r="R8">
+        <f>Q8*12.46</f>
+        <v>2.8391675923383617</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="24" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="19">
         <v>3.9882153687500002</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>4.1766267250600002</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>4.3788635643799996</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>5.4007893300100003</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="20">
         <v>6.1401243242399994</v>
       </c>
       <c r="H9" t="s">
         <v>70</v>
       </c>
+      <c r="I9">
+        <v>4.3788635643799996</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <f>I9*12.46</f>
+        <v>54.560640012174801</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="19">
         <v>7.9663496675142191</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>7.1407842351739346</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>6.4213158982058154</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>3.8632832170967402</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="20">
         <v>2.7989271163314511</v>
       </c>
       <c r="H10" t="s">
         <v>70</v>
       </c>
+      <c r="I10">
+        <v>6.4213158982058154</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <f>I10*12.46</f>
+        <v>80.009596091644468</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="19">
         <v>0.22786256760339979</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>0.21420573972409979</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>0.2148658778237999</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>0.12611252898749989</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="20">
         <v>4.5637878177599997E-2</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
       </c>
+      <c r="I11">
+        <v>0.2148658778237999</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11">
+        <f>I11*12.46</f>
+        <v>2.677228837684547</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="33"/>
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="19">
         <v>140.7869362016186</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>141.36310495337969</v>
       </c>
-      <c r="E12" s="11">
-        <v>143.08065575218851</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="E12" s="8">
+        <v>143.08065575218899</v>
+      </c>
+      <c r="F12" s="8">
         <v>165.1749570474465</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="20">
         <v>190.6036084429094</v>
       </c>
       <c r="H12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="19">
         <v>34.610863809708668</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>31.024085179936471</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>27.898259467346168</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>16.784546858459851</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="20">
         <v>12.16031046586941</v>
       </c>
       <c r="H13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="31">
+    <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="34"/>
+      <c r="B14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="21">
         <v>228.72555668148499</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>229.66161312283171</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>232.45198397104511</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>268.34687237183567</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="22">
         <v>309.65881936780897</v>
       </c>
       <c r="H14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="36">
+      <c r="B15" s="36"/>
+      <c r="C15" s="26">
         <v>34610.863809708702</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="27">
         <v>31024.085179936479</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="27">
         <v>27898.259467346201</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="27">
         <v>16784.546858459849</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="28">
         <v>12160.31046586941</v>
       </c>
       <c r="H15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <f>C5/C7</f>
         <v>0.23658837654378731</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <f t="shared" ref="D19:G19" si="1">D5/D7</f>
         <v>0.21302406626114795</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>0.19288661784558947</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>0.11580202088888943</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>8.3697294790467169E-2</v>
       </c>
@@ -11357,18 +14465,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD29E265-2862-A846-BF15-7D41C4F1FC4B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -11394,7 +14502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>69</v>
       </c>
@@ -11417,7 +14525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11443,7 +14551,7 @@
         <v>140.69999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11469,7 +14577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11499,4 +14607,390 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC71C16F-D788-4A0D-AEF6-8897909BA438}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A32997-A34E-46A1-AA29-145B12F9D83E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B001C1B6-8602-47AA-9234-2E9638A8B15E}">
+  <dimension ref="A1:V15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="47.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="42">
+        <v>3.8</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="47.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="46"/>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="42">
+        <v>0</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="71" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="44">
+        <v>9.6</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6">
+        <v>8.4040403999999995</v>
+      </c>
+      <c r="T3">
+        <v>95.204519029541331</v>
+      </c>
+      <c r="U3">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="71" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="46"/>
+      <c r="B4" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="42">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="6">
+        <v>30.22728</v>
+      </c>
+      <c r="T4">
+        <v>54.560640012174801</v>
+      </c>
+      <c r="U4">
+        <v>33.642000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="46"/>
+      <c r="B5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="6">
+        <v>287.65496719999999</v>
+      </c>
+      <c r="T5">
+        <v>80.009596091644468</v>
+      </c>
+      <c r="U5">
+        <v>235.494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="47.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="46"/>
+      <c r="B6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="44">
+        <v>0</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>2.677228837684547</v>
+      </c>
+      <c r="U6">
+        <v>1.1214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="47"/>
+      <c r="B7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="44">
+        <v>36</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="47.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="42">
+        <v>22.3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="42">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="46"/>
+      <c r="B9" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="42">
+        <v>2.7</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <f>C9*12.46</f>
+        <v>33.642000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="47.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="46"/>
+      <c r="B10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="42">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M14" si="0">C10*12.46</f>
+        <v>235.494</v>
+      </c>
+      <c r="S10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="71" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="46"/>
+      <c r="B11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="44">
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1.1214</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="6">
+        <v>8.4040403999999995</v>
+      </c>
+      <c r="T11" s="6">
+        <v>30.22728</v>
+      </c>
+      <c r="U11" s="6">
+        <v>287.65496719999999</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="46"/>
+      <c r="B12" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="44">
+        <v>180.9</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="41"/>
+      <c r="R12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12">
+        <v>95.204519029541331</v>
+      </c>
+      <c r="T12">
+        <v>54.560640012174801</v>
+      </c>
+      <c r="U12">
+        <v>80.009596091644468</v>
+      </c>
+      <c r="V12">
+        <v>2.677228837684547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="46"/>
+      <c r="B13" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="42">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13">
+        <v>22.3</v>
+      </c>
+      <c r="T13">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="U13">
+        <v>235.494</v>
+      </c>
+      <c r="V13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="47"/>
+      <c r="B14" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="44">
+        <v>294</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:22" ht="47.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="44">
+        <v>34610.86</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>